--- a/500all/speech_level/speeches_CHRG-114hhrg98892.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98892.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,30 +52,18 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman.    And thank you to all of you. As the chairman stated, I think our witnesses today are very well-suited to address us on those issues, having served in the Pentagon, having been through, I guess, the highs and lows on a number of acquisitions. And we certainly wish that you will share with us as forthright and honestly as you can what goes well and sometimes what doesn't go so well. What are those lessons learned? It is important for us to really take a close look at that and be sure that we are doing everything that is the most efficient and the most agile in terms of acquisition but, at the same time, encouraging people to innovate and even to take risks where that is appropriate. Sometimes the whole concept of being free to fail is something that often is not discussed as well as I think it should. And we know that there are certain areas in which that is more possible and others in which it certainly is not.    I think we also want to get your thoughts on the impact of Congress, where we are constantly changing the acquisition system. We know that each year a portion of the NDAA, known as title VIII, includes dozens and sometimes hundreds of pages of new law. In last year's bill, for example, both this committee and our Senate counterparts added around 75 multifaceted and detailed new acquisition laws. So while this annual effort to fix the acquisition system is well intended, there is certainly a chance that these constant changes in the law could be making it more difficult for DOD [Department of Defense] to make good decisions on programs.    We welcome your input today and look forward to what you have to say. Thank you very much for being here.    Thank you, Mr. Chairman.    The Chairman. Thank you. The committee is pleased to welcome Ms. Christine Fox, who formerly was Director of Cost Assessment and Program Evaluation in the Office of the Secretary of Defense, is currently affiliated with Johns Hopkins Applied Physics Laboratory; Mr. Robert Hale, formerly the Comptroller at the Department of Defense, currently affiliated with Booz Allen; and Admiral Sandy Winnefeld, former Vice Chairman of the Joint Chiefs of Staff, who is currently teaching at the Sam Nunn School and also associated with the Kennedy School up at Harvard.    Again, thank you all for being here.    Without objection, your full written statement will be made part of the record. And now you will be recognized for any comments you would like to make.    Ms. Fox.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Fox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fox. Thank you, Chairman Thornberry, Representative Davis, and distinguished members of this committee.    First, I appreciate all of the work you have done and continue to do on acquisition reform. And I appreciate the opportunity to speak with you today on this important topic. During my tenure in the Department of Defense, my colleagues and I spent considerable energy to improve the affordability and feasibility of the major defense acquisition programs. In my current position at the Johns Hopkins University Applied Physics Lab, I have the pleasure of working closely with scientists and engineers who are innovating with technologies that will enhance our Nation's security.    My full statement has been submitted for the record. I would like now to summarize briefly its major recommendations.    First, I would emphasize the importance of continuing to require independent cost estimates for major programs. When I became CAPE [Cost Assessment and Program Evaluation] Director in November of 2009, many weapons programs were in the red for both cost and schedule, some of which eventually breached Nunn-McCurdy thresholds. The reasons are varied and unique to each program. But a common factor was a strong want and need for the program, coupled with institutional incentive to be overly optimistic. In short, they thought: This time will be different. But these optimistic assumptions rarely became reality.    The Weapon Systems Acquisition Reform Act of 2009 changed all that by forcing the Department to have an independent cost estimate developed by CAPE for all major program milestones and its certifications for programs experiencing cost overruns. No longer could the Department base program decisions just on the projections of a program's most ardent advocates. Sustaining the progress of recent years will be all the more important as the Department implements the acquisition reform provisions of the fiscal year 2016 NDAA, which moves milestone decision authority to the military departments.    One recommendation I can offer this committee is to amend the law to ensure that CAPE continues to provide independent cost estimates for all programs for which they currently have responsibility, regardless of where the milestone decision authority resides. Another key factor in starting programs well is getting the requirements right. My colleague, Admiral Sandy Winnefeld, when he was the Vice Chairman of the Joint Chiefs of Staff, took significant steps to ensure that CAPE and AT&amp;L [Acquisition, Technology, and Logistics] had a voice as requirements were debated at the Joint Requirements Oversight Council. For example, technology maturity is now as much a part of the requirements discussion early in a program's life cycle as is cost and schedule realism. This important collaboration really should continue.    With respect to the acquisition workforce, while much progress has been made, I am still concerned that too often program managers are incentivized to get their program to the next milestone, regardless of whether it should go forward. No one wants to throw up bureaucratic roadblocks and unnecessary delays, but program managers must have the experience and confidence and encouragement to stand up and tell hard truths when needed, that it is not ready to go to the next milestone, or maybe it is never going to be ready or even we don't need it anymore.    In all, process improvements led by AT&amp;L and the Joint Staff are allowing us to design and field programs more efficiently and effectively. But it still takes time. In the fiscal year 2016 NDAA, the Congress has made important changes to facilitate rapid prototyping and fielding of new capabilities. We must also consider ways to develop DOD unique technologies and keep them at the ready, on the shelf for the day when the Nation has an immediate need and/or when the budget environment changes, as it certainly will--I hope.    In addition to working with industry to prepare for these transitions, the promise of advances in manufacturing would give us the ability in the future to take a technology from design to production on demand in the future. We must continue to pursue these types of initiatives.    Now, to be sure, we wouldn't accept a rapid prototyping tech on-the-shelf approach to build, for example, the strategic nuclear submarine force. For those large programs, we are pushing out risk and are increasingly following a realistic and achievable path to procurement.    But what if we are not taking enough risk in our technology development? In today's world, our potential adversaries are rapidly fielding new technologies that might require us to push ourselves in certain select areas. Perhaps we need to knowingly take risk. This should be a new category of acquisition programs in which we push the boundaries of our technologies with full awareness and acceptance of the inherent cost and scheduled risk.    In my view, this is an acceptable approach only if there is an agreed upon need, and we are candid in our assessments of the risk. In closing, the worst outcome in all of these areas would be for the Department to be allowed to go back to the days of believing in magic with regard to cost and schedule. With prudent risks and proper controls on cost estimates and requirements, the Department's acquisition system will provide better outcomes for both the warfighter and the taxpayer. Thank you again for the opportunity to appear before you today.    [The prepared statement of Ms. Fox can be found in the Appendix on page 35.]    The Chairman. Thank you.    Mr. Hale.</t>
   </si>
   <si>
-    <t>Hale</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hale. Chairman Thornberry, Mrs. Davis, and all the members of the committee, I appreciate the chance to be here.    I will talk today about the budgetary aspects of acquisitions, starting with discussing acquisition unit costs. But I will focus particularly on the need to control operating and support costs. It is so important that I believe it should be the next frontier for acquisition reform.    Before I turn to those topics, I would like briefly to comment on the effects of budgetary turmoil in the Department of Defense. Since 2010, DOD and many other agencies have seen near constant budgetary turmoil: sequester, shutdown, furloughs, continuing resolutions. We all know the list. And it is frustrating. It has bad effects on program management in the Department, takes away time that senior leaders could better spend on things like acquisition reform. It wastes money. It damages the morale of DOD employees, especially civilian employees, who make up a lot of the acquisition workforce. I would ask everyone on this committee, I would plead with you to do all you can to get back to a more normal budget process.    Let me turn now to holding down--I will start with--unit acquisition costs by starting programs well. For many years, DOD has seen relentless growth in the unit cost of its programs. It is typical for, as we go from one generation to the next generation of a weapon, to see growth of a factor of two or more, even after adjustment for inflation. Some of these higher acquisition costs led to improvements in capability that were needed to keep up with potential adversaries. However, the higher acquisition costs, especially when you combine them with the operating and support costs I am going to discuss in a moment, forced the Department to reduce the overall size of its forces. If we want to avoid further force cuts, then we need program managers to make hard tradeoffs early in the life of a weapon, first, to set baseline costs that are consistent with likely future budgets and then to try to ensure that there isn't unanticipated growth in costs above those baselines. Both of those efforts are needed.    In recent years, the Department has made significant and I think commendable progress in holding down unanticipated cost growth. That cost growth has slowed. We have seen fewer violations of the Nunn-McCurdy thresholds. But the Department also needs to make those hard tradeoffs to get reasonable baseline costs to start with. That is why I am glad to see that DOD is establishing what it is terming affordability caps. It described them in the September 2015 report on the performance of the acquisition system. These affordability caps cover both acquisition costs but also sustainment or operating and support costs. They cover the full life-cycle costs of a weapon system. According to that September 2015 report, we have seen 29 caps established for major defense programs, organizations set up in the services, as well I believe as in CAPE to monitor efforts to do this. I am hopeful that DOD will use these affordability caps as a vehicle for continuing to monitor and try to hold down acquisition cost, so long as we are consistent with assumptions of what we need to meet the threats.    I have focused so far on DOD's efforts. I would like to note Congress is also playing a role here, especially in last year's authorization bill. You made a number of changes, some of which may help hold down acquisition costs. I note, for example, involving the service chiefs more in the requirements process, they at least will have a sense of budget problems.    Let me turn now to operating and support costs, which are very important to the Department from a budgetary standpoint. Operating and support costs make up more than half of the total cost to buy and operate a weapon over its life cycle. They also make up today almost two-thirds of the total defense budget. They are so important or controlling them is so important, as I said, I believe they should be the next frontier for acquisition reform. In recent years, these operating and support costs have grown sharply, even as force size has declined. If you take operating and support costs--and by that, I mean the dollars in the operation and maintenance appropriation, military personnel--the adjustment for inflation, take out wartime or OCO [overseas contingency operations] costs, they have grown by 20 percent since the year 2000. At the same time, the size of the military force, as measured by the number of Active Duty personnel, has declined by 4 percent. So what is causing--and I should say this is a trend that occurs in all the military departments. And it didn't just start in 2000, it has been going on for decades.    So what is causing operating and support costs to grow and what can DOD do about it? Some of the growth in these costs is not directly related to weapons. It is related to programs or issues like military compensation and health care. Working with the Congress, the Department of Defense has had significant success in slowing the growth in healthcare costs and compensation costs. More effort is needed. I am pleased to see that Congress and key Members have indicated they will tackle military healthcare reform in this session or an upcoming one. They also need to look at hard issues, like closing unneeded facilities and continued efficiencies.    A substantial part of that operating and support growth can be tied directly to weapons. So while DOD has devoted much attention to controlling and holding down acquisition costs, it has not yet paid as much attention to holding down operating and support costs. The new affordability caps, which I mentioned earlier, include, they call them sustainment costs, but it is essentially operating and support costs. I very much hope they provide the Department with a vehicle for working to control these costs because of their budgetary importance.    Congress can also play an important role in slowing the growth of operating costs. For example, Congress convenes hearings. I am amazed I would come here and ask for a hearing, but I am not in the House, so I wouldn't get away with that. I think it would be especially important for this committee and other defense committees to hold hearings on the implementation and enforcement of these affordability caps with a focus on the operating and support portions. Congress can also use reporting requirements to shine a spotlight on operating and support costs. The Nunn-McCurdy legislation requires reporting on weapons programs that breach thresholds for unit acquisition costs. And I know from personal experience, sitting in staff meetings, these focus the attention of senior leaders. It is time to consider similar reporting requirements for operating and support costs.    Mr. Chairman, members of the committee, in sum, program managers supervising DOD weapons have a lot on their management plate, especially early in the life cycle of a weapon. But during that period, they do need to consider tradeoffs between requirements and costs and pay attention to these affordability caps if we are to sustain reasonable levels of forces. And they particularly need to focus, in my view, on operating and support costs. It should be the next frontier for acquisition reform. And given its budgetary importance, it is critical that we conquer this frontier.    Mr. Chairman, that completes my remarks.    [The prepared statement of Mr. Hale can be found in the Appendix on page 46.]    The Chairman. Thank you, sir.    Admiral.</t>
   </si>
   <si>
-    <t>Winnefeld</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Winnefeld. Good morning, Chairman Thornberry and Mrs. Davis and members of the committee.    Believe it or not, it is good to see you again. And I thank you for the opportunity for me to be able to contribute my thoughts on the important topic of acquisition reform. It is also a pleasure to appear alongside two of my longstanding former colleagues of whom I think so highly. As we approach this very important topic, I think we should be mindful of the fact that acquiring the tools that DOD needs to protect the American people is not an easy task. We are talking about conceiving, designing, budgeting, prototyping, building, testing, adjusting, and evolving the most advanced technology around and not doing it on the scale of the iPhone.    It isn't easy. And it isn't cheap. And it isn't always fast. Though some nations do it faster than we do and some do it for less money, nobody produces a better final product than the United States. And when some pretty capable people from both government and industry are trying to do this immensely complex task in a cost-competitive environment within a chaotic budget environment with a rapidly evolving threat and quickly evolving technical landscape, it should come as no surprise that we sometimes have cost, schedule, and performance challenges.    That said, there is no question that we can do better. And we are doing better. But I also applaud the committee for the attention that you are giving in the interest of good stewardship of our taxpayer dollars and our readiness to fight. My participation today really regards the front end, the requirements process, and, most specifically, the joint requirements process, where I believe we have made some pretty solid progress. Specifically, during the 4 years that I was privileged to serve as vice chairman and oversaw this process, we did the following: We sped up the joint document process by dramatically shrinking the size of our documents and by compressing the time allowed for our stakeholders to review them. For example, initial capability documents that were once 2- to 300 pages are now limited to 10 pages. What once took 6 months or more to approve in an initial capability document is now limited to 97 days, which sounds like a lot, but there are a lot of wickets they have to jump through. We also worked hard to inculcate the provisions of the 2009 Weapon Systems Acquisition Reform Act [WSARA], which was a good piece of legislation, into the requirements process, including bringing cost, schedule, and technical maturity considerations into joint requirements deliberations. We actually considered those as factors. We shrank the Joint Requirements Oversight Council meetings from an auditorium full of people to a much smaller group in a much smaller room. And we really leveraged what the WSARA asked us to do, and that is our outside experts, our AT&amp;L experts, our comptroller expert, our USD [Under Secretary of Defense] policy experts, and CAPE and DOT&amp;E [Director, Operational Test and Evaluation] experts, specifically asking for their advice in every single meeting.    And I think they would tell you, as Ms. Fox said, that they felt like they were included in that process. We formalized the joint emergent operational needs and the joint urgent operational needs requirements processes and executed them both with discipline and dispatch, taking only 15 to 31 days for the whole requirements process to run its course. We worked with our CAPE partners to speed up the analysis of alternatives processing, including experimenting with doing the work ourselves rather than putting it out for contractors to do it. Whenever it was appropriate, we took a portfolio view rather than looking at capabilities in stovepipes. And we started including special access program capabilities into that process, which was very important. And while ensuring the COCOMs [combatant commands] knew that they were welcome as members of the JROC [Joint Requirements Oversight Council], we also imposed discipline on their integrative priority lists to ensure they reflected capability requirements, not just requests for more capacity. During my tenure, not a single joint requirement group, in fact, working with program offices, we actually trimmed a few that made sense for the warfighter and saved money and heartburn in the process. We even instituted quarterly meetings among the requirements, acquisition, and budgeting leadership. But because there were so few issues because we think we were getting that process under control, we really never had a contentious discussion. And we were transparent. To my knowledge, we never once have turned down a request from Congress for a copy of a JROC document, which I think is important.    I don't want to monopolize the time by talking too much in detail about the provisions of the 2016 NDAA. There are some good ideas in there. You have done some good work. There may be a few that are legislating what is already working, but that is okay. I would say that we were asked to have the JROC strongly consider the service chiefs' views on the requirements process. And I am not sure where that came from, because it is kind of like the GEICO commercial: If you are at JROC, it is what you do, is consider the chiefs' views. That is why it exists.    I also support the strong service chief role in the milestone decision process. But I would flip it on its ear and say this is less about giving them something they never had, and I think this is what you intended, by the way, less about giving them something they never had than it is holding them accountable for something that they already have and could do any time they wanted. And some of them were actually good at that. I couldn't agree more with the initiatives you have to enhance rapid prototyping. It is the only way we are going to keep our competitive edge in a dynamic world. And without causing more confusion in the process, I think we need to look deeper into how we can institutionalize rapid prototyping so we don't end up with a thousand different flowers blooming, and we have a little bit of control over the process, which I think we have, but we might be able to do better. I would like to see some funds specifically set aside for and that perhaps even for the deputy secretary and the vice chairman to control those funds, because there are sometimes things that the joint world needs that the services just don't love enough to make it into their budget process. But I also would tell you that I think it would be a mistake to fund something like this with a penalty for cost overruns. For one thing, we would like to get rid of cost overruns, which would mean there would be no money for such a program. And for the other thing, I do believe it could cause some unintentional bad behaviors if you start penalizing programs for cost overruns. We want to limit those as much as we can. But you could have some odious behavior in the process of trying to do that. Absolutely agree with the legislation's emphasis on better development of acquisition professionals. I would ask that we all be cautious about adding more reporting requirements. We have enough paperwork. And I also think we need to keep a sharp eye on the testing process. I would like to make just a couple of final points.    First, I think we could grant more flexibility to the Department with full visibility to the Congress. That would help. We need a little more authority I believe for reprogramming. But, more importantly, I think we could give DOD some upfront discretionary money for starting programs, obviously, again, with strict accountability to Congress, that would dramatically speed time for the initial development of a system before an appropriation cycle catches up with it. We are going to have to have that kind of flexibility if we are going to keep up with countries that don't operate under the same model we do.    And, finally, back to who I started with, I think we should be mindful of the fact that it takes a while to see the effects of change in this business. I think Congress has made some very good improvements with the WSARA and the NDAA most recently. We have also made some very good improvements inside DOD with Better Buying Power and the like. We should take a deep, though very watchful, breath and let the good work of the past few years in reforming acquisition take effect. We have made a lot of progress. Just look at the Virginia-class submarine as an exemplar. Let's see how the new system works for us.    Once again, I want to thank you for the opportunity to be here this morning. And I do look forward to your questions. Thank you, sir.    The Chairman. Thank you.    Admiral, there is a book that suggests that if you are tackling complex problems, you ought to start with why: Why are you doing this. What is this about? And both you and Ms. Fox kind of touched on this. The testimony we have had before this committee over the last year is that probably never before in the country's history have we faced so many complex national security challenges all at the same time. While technology evolves at an increasingly rapid rate, while key competitors are making investments to deny us advantages, leading to the Third Offset and other initiatives at the Department, and, essentially, that the way the world is and the threats are moving is faster than our processes internally. So do you share that concern? Because to me, that is the why--we want to save money. You know, we also need to get enough stuff to matter, not just have a handful of items because of cost overruns, but having the agility to keep up with technological changes and adversaries that are moving much more rapidly in some cases than we can is the bottom line of the why, to me, on this acquisition. I would like, because of the position you have held, I would like to hear your views.</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>400655</t>
   </si>
   <si>
-    <t>K. Michael Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Thank you, Mr. Chairman.    Mr. Hale, while not directly related to acquisitions per se, all of that evaluation data comes from the books and records of the Department of Defense. And I would be remiss if I didn't ask you your thoughts on auditing the Department of Defense, in particular the work that would have to get done to audit the rollup of DOD writ large, as opposed to the individual pieces that are going on, and then visit with us a little bit about your perspective on transitioning to new leadership next year and the risks to maintaining the pace and the momentum that is currently I perceive to be going on with respect to the audit role.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman.    I am going to start with a rhetorical question--it is one of those to make a point. And this is not a criticism of the contractors or of the Navy or of DOD generally. But Next-Gen Jammer is finally--we are moving forward on that. But that thing has been Next-Gen so long, I am wondering if it should be called Now-Gen or Previous-Gen Jammer. And the point is this isn't even a large submarine or aircraft carrier. This is a smaller pod to put on a platform. And it still took and is still taking a long time to get to the point where we can deploy it. But we are getting there. And it is great. So I want to be clear about that. But the point I want to make is that, big or small, it seems that the acquisition process takes a long time. And so for you, Ms. Fox, looking at MDAPs [major defense acquisition programs], is the MDAP problem a platform problem? Is it a program problem? Are there certain things in MDAPs that drive budget and timelines over set budgets and timelines? Are there things in MDAPs that actually get done on time and on budget?</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank all of you for being here today. I appreciate the strong commitment of Chairman Mac Thornberry on acquisition reform and his persistence. As chairman of the Emerging Threats and Capabilities Subcommittee, my greatest concern has been and will be getting the newest and most effective technology to the warfighter to protect against cyberattacks. Do you believe that our current construct allows for this? And how do you believe rapid acquisition might play a role in achieving this goal? And also does this promote public-private cooperation?</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    I guess my question will be to former Deputy Secretary Hale. I look forward to seeing progress in fielding the Long Range Strike Bomber, the capability that we certainly need. So as we look forward in the acquisition process, can you speak to how we can apply lessons learned to keep what will be a long-term program in check, time and costwise?</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    I would like to thank our panelists for joining us. You all had mentioned affordability. I want to ask a question in that realm. It seems like where affordability goals have been used, they have been successful. I have a question, though, or a direction in how they are being utilized.    Are they being used across all acquisition programs? Are they being used early in a program's life? Are they managed by someone at a senior level, at a deputy level, who has oversight over all the aspects of the program, requirements, budgeting, program management, acquisition?    So I guess my question is this, is how often does DOD use affordability constraints or goals in the management of a process, and should those affordability goals be inserted at Milestone A, so they can have an effect early on in the process? I would like to get your perspective on that.</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Ma'am, gentlemen, thank you for being here.    Admiral Winnefeld, I had the opportunity to watch my Bulldogs whip up on the Yellow Jackets this year. I don't know if you made it to the game or not, but it is usually a pretty good one. I couldn't help it. But I know you have been affiliated with Georgia Tech for a long time, and I hope to see you there in short order.    And I just wonder, as I listen to things and look at the way things happen in Washington, if the fear of failure sometimes isn't stronger than the desire to succeed. And when we get into things at the Pentagon, it seems that the getting something that is good enough ends up with so much criticism that we strive for something that in some cases isn't attainable when we spend a lot of money getting nowhere.    I look back at the purchase of the F-22 and what happened there, and I think right now we would be very happy to have more F-22s. But I have watched the one program that I have had the most experience with has been the JSTARS [Joint Surveillance Target Attack Radar System]. It was something that was--we were looking at the recapitalization of this when I got here. It certainly seems that we are starting to move forward with this, and the recap long term is estimated to save $11 billion in operating sustainment over 20 years, and when we look--we have waited too long now. We know we are going to have a capability gap with that intelligence platform.    Is there enough emphasis on the making sure that those major acquisition programs stay on schedule, I guess, is my primary question.</t>
   </si>
   <si>
@@ -322,9 +292,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, and thanks for having this important hearing, and thank you all for your contributions.    Former Admiral Winnefeld, I want to ask you in particular, and by the way, thank you for your distinguished service, and it was good to get to know you when you came to Colorado Springs. As the chairman's designee heading the JROC, how do you feel the current service-led acquisition system serves national requirements, including nuclear forces, NC3 [nuclear command, control, and communication], space, and missile defense, are these capabilities service priorities?</t>
   </si>
   <si>
@@ -364,9 +331,6 @@
     <t>412579</t>
   </si>
   <si>
-    <t>Marc A. Veasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Veasey. I did have one question that I wanted to ask the panel. As far as acquisition reform is concerned, and someone may have already asked this, so if they have, please forgive that. But if there was one area of reform that you could pick and you can only pick one, like where would it be? And it could be a policy or a technique or anything that would just maybe be the beginning of something really good as far as acquisition reform is concerned.</t>
   </si>
   <si>
@@ -389,9 +353,6 @@
   </si>
   <si>
     <t>412395</t>
-  </si>
-  <si>
-    <t>Mo Brooks</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Brooks. I do. Acquisition reform is something that we need as a matter of good government, but I would submit further that it is very quickly becoming a matter of financial necessity. I am not sure if you have seen the kind of economic financial data that we have been seeing in Congress, but it has taken a dramatic turn for the worst.    By way of background, I was elected in 2010. Since 2010, one of the things that the Republicans in Congress could at least point to every single year the deficit got lower--i.e., better--still horrible at $439 billion, which was last year's deficit, but that is a whole lot better than the string of trillion dollar deficits that we had.    In the first quarter of this fiscal year, revenue has been up 4 percent, which is a good thing, but spending went up 7 percent. According to the Treasury Department, the first fiscal year, we had a $36 billion worsening of our deficit situation compared to the first quarter of the previous fiscal year. By extrapolation, that would suggest that we are going have a $144 billion deficit worse than what we had in a bad $439 billion deficit last year. However, the CBO [Congressional Budget Office] is a little bit more optimistic saying: Well, we think it will only be $130-something billion worse, putting it somewhere in the neighborhood of $570 billion.    They are also telling us that while we blew through the $19 trillion debt mark recently, within a decade we are going to blow through the $30 trillion debt mark, which means that we are looking at a 10-year average of over a trillion dollars a year in deficits. That being the case, what is your judgment that the Pentagon is really serious about streamlining acquisition efforts through the Federal acquisition regulations, changing that, or what have you, in order to maximize the bang for the buck that the taxpayer has to allocate to national security?</t>
@@ -817,11 +778,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -841,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -867,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -893,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -919,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -945,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -971,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -997,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1023,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1051,11 +994,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1075,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1103,11 +1042,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1127,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1153,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1181,11 +1114,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1205,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1233,11 +1162,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1257,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1283,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1309,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1337,11 +1258,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1361,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1387,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1413,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1439,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1465,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>39</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1491,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1517,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1543,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1569,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1595,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1621,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1647,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1673,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1699,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1725,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1751,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1777,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1803,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1829,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1855,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1881,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1907,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1933,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1959,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1985,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2011,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2037,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2063,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2089,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>66</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2115,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2141,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2167,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2193,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2219,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2245,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2271,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2297,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2323,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2349,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2375,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2401,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2427,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2453,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2479,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2505,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2531,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2559,11 +2386,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2583,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2609,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2635,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2661,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2687,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2713,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2739,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2765,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2791,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2817,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2843,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2869,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2895,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2921,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2947,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2973,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2999,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3025,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3051,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3077,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3103,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3129,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3155,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3181,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
-      </c>
-      <c r="G93" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3207,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3233,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3259,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3285,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3311,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3337,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3363,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3389,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98892.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98892.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,33 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman.    And thank you to all of you. As the chairman stated, I think our witnesses today are very well-suited to address us on those issues, having served in the Pentagon, having been through, I guess, the highs and lows on a number of acquisitions. And we certainly wish that you will share with us as forthright and honestly as you can what goes well and sometimes what doesn't go so well. What are those lessons learned? It is important for us to really take a close look at that and be sure that we are doing everything that is the most efficient and the most agile in terms of acquisition but, at the same time, encouraging people to innovate and even to take risks where that is appropriate. Sometimes the whole concept of being free to fail is something that often is not discussed as well as I think it should. And we know that there are certain areas in which that is more possible and others in which it certainly is not.    I think we also want to get your thoughts on the impact of Congress, where we are constantly changing the acquisition system. We know that each year a portion of the NDAA, known as title VIII, includes dozens and sometimes hundreds of pages of new law. In last year's bill, for example, both this committee and our Senate counterparts added around 75 multifaceted and detailed new acquisition laws. So while this annual effort to fix the acquisition system is well intended, there is certainly a chance that these constant changes in the law could be making it more difficult for DOD [Department of Defense] to make good decisions on programs.    We welcome your input today and look forward to what you have to say. Thank you very much for being here.    Thank you, Mr. Chairman.    The Chairman. Thank you. The committee is pleased to welcome Ms. Christine Fox, who formerly was Director of Cost Assessment and Program Evaluation in the Office of the Secretary of Defense, is currently affiliated with Johns Hopkins Applied Physics Laboratory; Mr. Robert Hale, formerly the Comptroller at the Department of Defense, currently affiliated with Booz Allen; and Admiral Sandy Winnefeld, former Vice Chairman of the Joint Chiefs of Staff, who is currently teaching at the Sam Nunn School and also associated with the Kennedy School up at Harvard.    Again, thank you all for being here.    Without objection, your full written statement will be made part of the record. And now you will be recognized for any comments you would like to make.    Ms. Fox.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Fox</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fox. Thank you, Chairman Thornberry, Representative Davis, and distinguished members of this committee.    First, I appreciate all of the work you have done and continue to do on acquisition reform. And I appreciate the opportunity to speak with you today on this important topic. During my tenure in the Department of Defense, my colleagues and I spent considerable energy to improve the affordability and feasibility of the major defense acquisition programs. In my current position at the Johns Hopkins University Applied Physics Lab, I have the pleasure of working closely with scientists and engineers who are innovating with technologies that will enhance our Nation's security.    My full statement has been submitted for the record. I would like now to summarize briefly its major recommendations.    First, I would emphasize the importance of continuing to require independent cost estimates for major programs. When I became CAPE [Cost Assessment and Program Evaluation] Director in November of 2009, many weapons programs were in the red for both cost and schedule, some of which eventually breached Nunn-McCurdy thresholds. The reasons are varied and unique to each program. But a common factor was a strong want and need for the program, coupled with institutional incentive to be overly optimistic. In short, they thought: This time will be different. But these optimistic assumptions rarely became reality.    The Weapon Systems Acquisition Reform Act of 2009 changed all that by forcing the Department to have an independent cost estimate developed by CAPE for all major program milestones and its certifications for programs experiencing cost overruns. No longer could the Department base program decisions just on the projections of a program's most ardent advocates. Sustaining the progress of recent years will be all the more important as the Department implements the acquisition reform provisions of the fiscal year 2016 NDAA, which moves milestone decision authority to the military departments.    One recommendation I can offer this committee is to amend the law to ensure that CAPE continues to provide independent cost estimates for all programs for which they currently have responsibility, regardless of where the milestone decision authority resides. Another key factor in starting programs well is getting the requirements right. My colleague, Admiral Sandy Winnefeld, when he was the Vice Chairman of the Joint Chiefs of Staff, took significant steps to ensure that CAPE and AT&amp;L [Acquisition, Technology, and Logistics] had a voice as requirements were debated at the Joint Requirements Oversight Council. For example, technology maturity is now as much a part of the requirements discussion early in a program's life cycle as is cost and schedule realism. This important collaboration really should continue.    With respect to the acquisition workforce, while much progress has been made, I am still concerned that too often program managers are incentivized to get their program to the next milestone, regardless of whether it should go forward. No one wants to throw up bureaucratic roadblocks and unnecessary delays, but program managers must have the experience and confidence and encouragement to stand up and tell hard truths when needed, that it is not ready to go to the next milestone, or maybe it is never going to be ready or even we don't need it anymore.    In all, process improvements led by AT&amp;L and the Joint Staff are allowing us to design and field programs more efficiently and effectively. But it still takes time. In the fiscal year 2016 NDAA, the Congress has made important changes to facilitate rapid prototyping and fielding of new capabilities. We must also consider ways to develop DOD unique technologies and keep them at the ready, on the shelf for the day when the Nation has an immediate need and/or when the budget environment changes, as it certainly will--I hope.    In addition to working with industry to prepare for these transitions, the promise of advances in manufacturing would give us the ability in the future to take a technology from design to production on demand in the future. We must continue to pursue these types of initiatives.    Now, to be sure, we wouldn't accept a rapid prototyping tech on-the-shelf approach to build, for example, the strategic nuclear submarine force. For those large programs, we are pushing out risk and are increasingly following a realistic and achievable path to procurement.    But what if we are not taking enough risk in our technology development? In today's world, our potential adversaries are rapidly fielding new technologies that might require us to push ourselves in certain select areas. Perhaps we need to knowingly take risk. This should be a new category of acquisition programs in which we push the boundaries of our technologies with full awareness and acceptance of the inherent cost and scheduled risk.    In my view, this is an acceptable approach only if there is an agreed upon need, and we are candid in our assessments of the risk. In closing, the worst outcome in all of these areas would be for the Department to be allowed to go back to the days of believing in magic with regard to cost and schedule. With prudent risks and proper controls on cost estimates and requirements, the Department's acquisition system will provide better outcomes for both the warfighter and the taxpayer. Thank you again for the opportunity to appear before you today.    [The prepared statement of Ms. Fox can be found in the Appendix on page 35.]    The Chairman. Thank you.    Mr. Hale.</t>
   </si>
   <si>
+    <t>Hale</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hale. Chairman Thornberry, Mrs. Davis, and all the members of the committee, I appreciate the chance to be here.    I will talk today about the budgetary aspects of acquisitions, starting with discussing acquisition unit costs. But I will focus particularly on the need to control operating and support costs. It is so important that I believe it should be the next frontier for acquisition reform.    Before I turn to those topics, I would like briefly to comment on the effects of budgetary turmoil in the Department of Defense. Since 2010, DOD and many other agencies have seen near constant budgetary turmoil: sequester, shutdown, furloughs, continuing resolutions. We all know the list. And it is frustrating. It has bad effects on program management in the Department, takes away time that senior leaders could better spend on things like acquisition reform. It wastes money. It damages the morale of DOD employees, especially civilian employees, who make up a lot of the acquisition workforce. I would ask everyone on this committee, I would plead with you to do all you can to get back to a more normal budget process.    Let me turn now to holding down--I will start with--unit acquisition costs by starting programs well. For many years, DOD has seen relentless growth in the unit cost of its programs. It is typical for, as we go from one generation to the next generation of a weapon, to see growth of a factor of two or more, even after adjustment for inflation. Some of these higher acquisition costs led to improvements in capability that were needed to keep up with potential adversaries. However, the higher acquisition costs, especially when you combine them with the operating and support costs I am going to discuss in a moment, forced the Department to reduce the overall size of its forces. If we want to avoid further force cuts, then we need program managers to make hard tradeoffs early in the life of a weapon, first, to set baseline costs that are consistent with likely future budgets and then to try to ensure that there isn't unanticipated growth in costs above those baselines. Both of those efforts are needed.    In recent years, the Department has made significant and I think commendable progress in holding down unanticipated cost growth. That cost growth has slowed. We have seen fewer violations of the Nunn-McCurdy thresholds. But the Department also needs to make those hard tradeoffs to get reasonable baseline costs to start with. That is why I am glad to see that DOD is establishing what it is terming affordability caps. It described them in the September 2015 report on the performance of the acquisition system. These affordability caps cover both acquisition costs but also sustainment or operating and support costs. They cover the full life-cycle costs of a weapon system. According to that September 2015 report, we have seen 29 caps established for major defense programs, organizations set up in the services, as well I believe as in CAPE to monitor efforts to do this. I am hopeful that DOD will use these affordability caps as a vehicle for continuing to monitor and try to hold down acquisition cost, so long as we are consistent with assumptions of what we need to meet the threats.    I have focused so far on DOD's efforts. I would like to note Congress is also playing a role here, especially in last year's authorization bill. You made a number of changes, some of which may help hold down acquisition costs. I note, for example, involving the service chiefs more in the requirements process, they at least will have a sense of budget problems.    Let me turn now to operating and support costs, which are very important to the Department from a budgetary standpoint. Operating and support costs make up more than half of the total cost to buy and operate a weapon over its life cycle. They also make up today almost two-thirds of the total defense budget. They are so important or controlling them is so important, as I said, I believe they should be the next frontier for acquisition reform. In recent years, these operating and support costs have grown sharply, even as force size has declined. If you take operating and support costs--and by that, I mean the dollars in the operation and maintenance appropriation, military personnel--the adjustment for inflation, take out wartime or OCO [overseas contingency operations] costs, they have grown by 20 percent since the year 2000. At the same time, the size of the military force, as measured by the number of Active Duty personnel, has declined by 4 percent. So what is causing--and I should say this is a trend that occurs in all the military departments. And it didn't just start in 2000, it has been going on for decades.    So what is causing operating and support costs to grow and what can DOD do about it? Some of the growth in these costs is not directly related to weapons. It is related to programs or issues like military compensation and health care. Working with the Congress, the Department of Defense has had significant success in slowing the growth in healthcare costs and compensation costs. More effort is needed. I am pleased to see that Congress and key Members have indicated they will tackle military healthcare reform in this session or an upcoming one. They also need to look at hard issues, like closing unneeded facilities and continued efficiencies.    A substantial part of that operating and support growth can be tied directly to weapons. So while DOD has devoted much attention to controlling and holding down acquisition costs, it has not yet paid as much attention to holding down operating and support costs. The new affordability caps, which I mentioned earlier, include, they call them sustainment costs, but it is essentially operating and support costs. I very much hope they provide the Department with a vehicle for working to control these costs because of their budgetary importance.    Congress can also play an important role in slowing the growth of operating costs. For example, Congress convenes hearings. I am amazed I would come here and ask for a hearing, but I am not in the House, so I wouldn't get away with that. I think it would be especially important for this committee and other defense committees to hold hearings on the implementation and enforcement of these affordability caps with a focus on the operating and support portions. Congress can also use reporting requirements to shine a spotlight on operating and support costs. The Nunn-McCurdy legislation requires reporting on weapons programs that breach thresholds for unit acquisition costs. And I know from personal experience, sitting in staff meetings, these focus the attention of senior leaders. It is time to consider similar reporting requirements for operating and support costs.    Mr. Chairman, members of the committee, in sum, program managers supervising DOD weapons have a lot on their management plate, especially early in the life cycle of a weapon. But during that period, they do need to consider tradeoffs between requirements and costs and pay attention to these affordability caps if we are to sustain reasonable levels of forces. And they particularly need to focus, in my view, on operating and support costs. It should be the next frontier for acquisition reform. And given its budgetary importance, it is critical that we conquer this frontier.    Mr. Chairman, that completes my remarks.    [The prepared statement of Mr. Hale can be found in the Appendix on page 46.]    The Chairman. Thank you, sir.    Admiral.</t>
   </si>
   <si>
+    <t>Winnefeld</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Winnefeld. Good morning, Chairman Thornberry and Mrs. Davis and members of the committee.    Believe it or not, it is good to see you again. And I thank you for the opportunity for me to be able to contribute my thoughts on the important topic of acquisition reform. It is also a pleasure to appear alongside two of my longstanding former colleagues of whom I think so highly. As we approach this very important topic, I think we should be mindful of the fact that acquiring the tools that DOD needs to protect the American people is not an easy task. We are talking about conceiving, designing, budgeting, prototyping, building, testing, adjusting, and evolving the most advanced technology around and not doing it on the scale of the iPhone.    It isn't easy. And it isn't cheap. And it isn't always fast. Though some nations do it faster than we do and some do it for less money, nobody produces a better final product than the United States. And when some pretty capable people from both government and industry are trying to do this immensely complex task in a cost-competitive environment within a chaotic budget environment with a rapidly evolving threat and quickly evolving technical landscape, it should come as no surprise that we sometimes have cost, schedule, and performance challenges.    That said, there is no question that we can do better. And we are doing better. But I also applaud the committee for the attention that you are giving in the interest of good stewardship of our taxpayer dollars and our readiness to fight. My participation today really regards the front end, the requirements process, and, most specifically, the joint requirements process, where I believe we have made some pretty solid progress. Specifically, during the 4 years that I was privileged to serve as vice chairman and oversaw this process, we did the following: We sped up the joint document process by dramatically shrinking the size of our documents and by compressing the time allowed for our stakeholders to review them. For example, initial capability documents that were once 2- to 300 pages are now limited to 10 pages. What once took 6 months or more to approve in an initial capability document is now limited to 97 days, which sounds like a lot, but there are a lot of wickets they have to jump through. We also worked hard to inculcate the provisions of the 2009 Weapon Systems Acquisition Reform Act [WSARA], which was a good piece of legislation, into the requirements process, including bringing cost, schedule, and technical maturity considerations into joint requirements deliberations. We actually considered those as factors. We shrank the Joint Requirements Oversight Council meetings from an auditorium full of people to a much smaller group in a much smaller room. And we really leveraged what the WSARA asked us to do, and that is our outside experts, our AT&amp;L experts, our comptroller expert, our USD [Under Secretary of Defense] policy experts, and CAPE and DOT&amp;E [Director, Operational Test and Evaluation] experts, specifically asking for their advice in every single meeting.    And I think they would tell you, as Ms. Fox said, that they felt like they were included in that process. We formalized the joint emergent operational needs and the joint urgent operational needs requirements processes and executed them both with discipline and dispatch, taking only 15 to 31 days for the whole requirements process to run its course. We worked with our CAPE partners to speed up the analysis of alternatives processing, including experimenting with doing the work ourselves rather than putting it out for contractors to do it. Whenever it was appropriate, we took a portfolio view rather than looking at capabilities in stovepipes. And we started including special access program capabilities into that process, which was very important. And while ensuring the COCOMs [combatant commands] knew that they were welcome as members of the JROC [Joint Requirements Oversight Council], we also imposed discipline on their integrative priority lists to ensure they reflected capability requirements, not just requests for more capacity. During my tenure, not a single joint requirement group, in fact, working with program offices, we actually trimmed a few that made sense for the warfighter and saved money and heartburn in the process. We even instituted quarterly meetings among the requirements, acquisition, and budgeting leadership. But because there were so few issues because we think we were getting that process under control, we really never had a contentious discussion. And we were transparent. To my knowledge, we never once have turned down a request from Congress for a copy of a JROC document, which I think is important.    I don't want to monopolize the time by talking too much in detail about the provisions of the 2016 NDAA. There are some good ideas in there. You have done some good work. There may be a few that are legislating what is already working, but that is okay. I would say that we were asked to have the JROC strongly consider the service chiefs' views on the requirements process. And I am not sure where that came from, because it is kind of like the GEICO commercial: If you are at JROC, it is what you do, is consider the chiefs' views. That is why it exists.    I also support the strong service chief role in the milestone decision process. But I would flip it on its ear and say this is less about giving them something they never had, and I think this is what you intended, by the way, less about giving them something they never had than it is holding them accountable for something that they already have and could do any time they wanted. And some of them were actually good at that. I couldn't agree more with the initiatives you have to enhance rapid prototyping. It is the only way we are going to keep our competitive edge in a dynamic world. And without causing more confusion in the process, I think we need to look deeper into how we can institutionalize rapid prototyping so we don't end up with a thousand different flowers blooming, and we have a little bit of control over the process, which I think we have, but we might be able to do better. I would like to see some funds specifically set aside for and that perhaps even for the deputy secretary and the vice chairman to control those funds, because there are sometimes things that the joint world needs that the services just don't love enough to make it into their budget process. But I also would tell you that I think it would be a mistake to fund something like this with a penalty for cost overruns. For one thing, we would like to get rid of cost overruns, which would mean there would be no money for such a program. And for the other thing, I do believe it could cause some unintentional bad behaviors if you start penalizing programs for cost overruns. We want to limit those as much as we can. But you could have some odious behavior in the process of trying to do that. Absolutely agree with the legislation's emphasis on better development of acquisition professionals. I would ask that we all be cautious about adding more reporting requirements. We have enough paperwork. And I also think we need to keep a sharp eye on the testing process. I would like to make just a couple of final points.    First, I think we could grant more flexibility to the Department with full visibility to the Congress. That would help. We need a little more authority I believe for reprogramming. But, more importantly, I think we could give DOD some upfront discretionary money for starting programs, obviously, again, with strict accountability to Congress, that would dramatically speed time for the initial development of a system before an appropriation cycle catches up with it. We are going to have to have that kind of flexibility if we are going to keep up with countries that don't operate under the same model we do.    And, finally, back to who I started with, I think we should be mindful of the fact that it takes a while to see the effects of change in this business. I think Congress has made some very good improvements with the WSARA and the NDAA most recently. We have also made some very good improvements inside DOD with Better Buying Power and the like. We should take a deep, though very watchful, breath and let the good work of the past few years in reforming acquisition take effect. We have made a lot of progress. Just look at the Virginia-class submarine as an exemplar. Let's see how the new system works for us.    Once again, I want to thank you for the opportunity to be here this morning. And I do look forward to your questions. Thank you, sir.    The Chairman. Thank you.    Admiral, there is a book that suggests that if you are tackling complex problems, you ought to start with why: Why are you doing this. What is this about? And both you and Ms. Fox kind of touched on this. The testimony we have had before this committee over the last year is that probably never before in the country's history have we faced so many complex national security challenges all at the same time. While technology evolves at an increasingly rapid rate, while key competitors are making investments to deny us advantages, leading to the Third Offset and other initiatives at the Department, and, essentially, that the way the world is and the threats are moving is faster than our processes internally. So do you share that concern? Because to me, that is the why--we want to save money. You know, we also need to get enough stuff to matter, not just have a handful of items because of cost overruns, but having the agility to keep up with technological changes and adversaries that are moving much more rapidly in some cases than we can is the bottom line of the why, to me, on this acquisition. I would like, because of the position you have held, I would like to hear your views.</t>
   </si>
   <si>
@@ -121,6 +139,12 @@
     <t>400655</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Thank you, Mr. Chairman.    Mr. Hale, while not directly related to acquisitions per se, all of that evaluation data comes from the books and records of the Department of Defense. And I would be remiss if I didn't ask you your thoughts on auditing the Department of Defense, in particular the work that would have to get done to audit the rollup of DOD writ large, as opposed to the individual pieces that are going on, and then visit with us a little bit about your perspective on transitioning to new leadership next year and the risks to maintaining the pace and the momentum that is currently I perceive to be going on with respect to the audit role.</t>
   </si>
   <si>
@@ -145,6 +169,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman.    I am going to start with a rhetorical question--it is one of those to make a point. And this is not a criticism of the contractors or of the Navy or of DOD generally. But Next-Gen Jammer is finally--we are moving forward on that. But that thing has been Next-Gen so long, I am wondering if it should be called Now-Gen or Previous-Gen Jammer. And the point is this isn't even a large submarine or aircraft carrier. This is a smaller pod to put on a platform. And it still took and is still taking a long time to get to the point where we can deploy it. But we are getting there. And it is great. So I want to be clear about that. But the point I want to make is that, big or small, it seems that the acquisition process takes a long time. And so for you, Ms. Fox, looking at MDAPs [major defense acquisition programs], is the MDAP problem a platform problem? Is it a program problem? Are there certain things in MDAPs that drive budget and timelines over set budgets and timelines? Are there things in MDAPs that actually get done on time and on budget?</t>
   </si>
   <si>
@@ -169,6 +199,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank all of you for being here today. I appreciate the strong commitment of Chairman Mac Thornberry on acquisition reform and his persistence. As chairman of the Emerging Threats and Capabilities Subcommittee, my greatest concern has been and will be getting the newest and most effective technology to the warfighter to protect against cyberattacks. Do you believe that our current construct allows for this? And how do you believe rapid acquisition might play a role in achieving this goal? And also does this promote public-private cooperation?</t>
   </si>
   <si>
@@ -196,6 +232,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    I guess my question will be to former Deputy Secretary Hale. I look forward to seeing progress in fielding the Long Range Strike Bomber, the capability that we certainly need. So as we look forward in the acquisition process, can you speak to how we can apply lessons learned to keep what will be a long-term program in check, time and costwise?</t>
   </si>
   <si>
@@ -220,6 +262,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    I would like to thank our panelists for joining us. You all had mentioned affordability. I want to ask a question in that realm. It seems like where affordability goals have been used, they have been successful. I have a question, though, or a direction in how they are being utilized.    Are they being used across all acquisition programs? Are they being used early in a program's life? Are they managed by someone at a senior level, at a deputy level, who has oversight over all the aspects of the program, requirements, budgeting, program management, acquisition?    So I guess my question is this, is how often does DOD use affordability constraints or goals in the management of a process, and should those affordability goals be inserted at Milestone A, so they can have an effect early on in the process? I would like to get your perspective on that.</t>
   </si>
   <si>
@@ -241,6 +289,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Ma'am, gentlemen, thank you for being here.    Admiral Winnefeld, I had the opportunity to watch my Bulldogs whip up on the Yellow Jackets this year. I don't know if you made it to the game or not, but it is usually a pretty good one. I couldn't help it. But I know you have been affiliated with Georgia Tech for a long time, and I hope to see you there in short order.    And I just wonder, as I listen to things and look at the way things happen in Washington, if the fear of failure sometimes isn't stronger than the desire to succeed. And when we get into things at the Pentagon, it seems that the getting something that is good enough ends up with so much criticism that we strive for something that in some cases isn't attainable when we spend a lot of money getting nowhere.    I look back at the purchase of the F-22 and what happened there, and I think right now we would be very happy to have more F-22s. But I have watched the one program that I have had the most experience with has been the JSTARS [Joint Surveillance Target Attack Radar System]. It was something that was--we were looking at the recapitalization of this when I got here. It certainly seems that we are starting to move forward with this, and the recap long term is estimated to save $11 billion in operating sustainment over 20 years, and when we look--we have waited too long now. We know we are going to have a capability gap with that intelligence platform.    Is there enough emphasis on the making sure that those major acquisition programs stay on schedule, I guess, is my primary question.</t>
   </si>
   <si>
@@ -292,6 +346,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, and thanks for having this important hearing, and thank you all for your contributions.    Former Admiral Winnefeld, I want to ask you in particular, and by the way, thank you for your distinguished service, and it was good to get to know you when you came to Colorado Springs. As the chairman's designee heading the JROC, how do you feel the current service-led acquisition system serves national requirements, including nuclear forces, NC3 [nuclear command, control, and communication], space, and missile defense, are these capabilities service priorities?</t>
   </si>
   <si>
@@ -331,6 +391,12 @@
     <t>412579</t>
   </si>
   <si>
+    <t>Veasey</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Veasey. I did have one question that I wanted to ask the panel. As far as acquisition reform is concerned, and someone may have already asked this, so if they have, please forgive that. But if there was one area of reform that you could pick and you can only pick one, like where would it be? And it could be a policy or a technique or anything that would just maybe be the beginning of something really good as far as acquisition reform is concerned.</t>
   </si>
   <si>
@@ -353,6 +419,12 @@
   </si>
   <si>
     <t>412395</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Brooks. I do. Acquisition reform is something that we need as a matter of good government, but I would submit further that it is very quickly becoming a matter of financial necessity. I am not sure if you have seen the kind of economic financial data that we have been seeing in Congress, but it has taken a dramatic turn for the worst.    By way of background, I was elected in 2010. Since 2010, one of the things that the Republicans in Congress could at least point to every single year the deficit got lower--i.e., better--still horrible at $439 billion, which was last year's deficit, but that is a whole lot better than the string of trillion dollar deficits that we had.    In the first quarter of this fiscal year, revenue has been up 4 percent, which is a good thing, but spending went up 7 percent. According to the Treasury Department, the first fiscal year, we had a $36 billion worsening of our deficit situation compared to the first quarter of the previous fiscal year. By extrapolation, that would suggest that we are going have a $144 billion deficit worse than what we had in a bad $439 billion deficit last year. However, the CBO [Congressional Budget Office] is a little bit more optimistic saying: Well, we think it will only be $130-something billion worse, putting it somewhere in the neighborhood of $570 billion.    They are also telling us that while we blew through the $19 trillion debt mark recently, within a decade we are going to blow through the $30 trillion debt mark, which means that we are looking at a 10-year average of over a trillion dollars a year in deficits. That being the case, what is your judgment that the Pentagon is really serious about streamlining acquisition efforts through the Federal acquisition regulations, changing that, or what have you, in order to maximize the bang for the buck that the taxpayer has to allocate to national security?</t>
@@ -728,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,2405 +830,2790 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>110</v>
+      </c>
       <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>110</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>110</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>110</v>
+      </c>
       <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G86" t="s">
+        <v>125</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
       <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G93" t="s">
+        <v>135</v>
+      </c>
       <c r="H93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G95" t="s">
+        <v>135</v>
+      </c>
       <c r="H95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G97" t="s">
+        <v>135</v>
+      </c>
       <c r="H97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G99" t="s">
+        <v>135</v>
+      </c>
       <c r="H99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G101" t="s">
+        <v>135</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>136</v>
+      </c>
+      <c r="I101" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98892.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98892.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400097</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -800,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +814,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,2787 +839,2972 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G85" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G97" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I101" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="J101" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
